--- a/benchmark/measurements/python_keras_500_measurements-truediffGumtree-update-lazy.xlsx
+++ b/benchmark/measurements/python_keras_500_measurements-truediffGumtree-update-lazy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/projects/truediff/benchmark/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4C8892C2-FD0A-034A-B065-18C3918869C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AC0FF4F5-8B36-9B46-8436-E3C402A10698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31100" yWindow="460" windowWidth="42620" windowHeight="42300"/>
   </bookViews>
@@ -16,12 +16,20 @@
     <sheet name="python_keras_500_measurements-t" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'python_keras_500_measurements-t'!$H$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'python_keras_500_measurements-t'!$H$2:$H$2395</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'python_keras_500_measurements-t'!$G$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'python_keras_500_measurements-t'!$G$2:$G$2395</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'python_keras_500_measurements-t'!$H$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'python_keras_500_measurements-t'!$H$2:$H$2395</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'python_keras_500_measurements-t'!$G$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'python_keras_500_measurements-t'!$G$2:$G$2395</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'python_keras_500_measurements-t'!$G$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'python_keras_500_measurements-t'!$G$2:$G$2394</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'python_keras_500_measurements-t'!$G$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'python_keras_500_measurements-t'!$G$2:$G$2394</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'python_keras_500_measurements-t'!$H$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'python_keras_500_measurements-t'!$H$2:$H$2395</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'python_keras_500_measurements-t'!$I$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'python_keras_500_measurements-t'!$I$2:$I$2394</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'python_keras_500_measurements-t'!$G$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'python_keras_500_measurements-t'!$G$2:$G$2394</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'python_keras_500_measurements-t'!$G$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'python_keras_500_measurements-t'!$G$2:$G$2394</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -7785,7 +7793,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7823,7 +7831,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3A42B598-BF73-464F-9CE6-6503EDB1674F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Average Diffing time (ms)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7853,7 +7861,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7891,8 +7899,49 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B41158FC-C1B6-324D-90B1-045C6FC1DEB4}">
           <cx:tx>
             <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Nodes/ms</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{91078EBF-6ED4-6A48-89E8-CC6620CA75D7}">
+          <cx:tx>
+            <cx:txData>
               <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>Nodes/ms</cx:v>
+              <cx:v>Edits/Nodes</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -7957,6 +8006,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9026,6 +9115,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9155,6 +9759,84 @@
             <a:xfrm>
               <a:off x="14370050" y="228600"/>
               <a:ext cx="4572000" cy="6223000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D024F54-3BAF-9144-B7B2-C42B88D71AC8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10674350" y="7391400"/>
+              <a:ext cx="4572000" cy="6489700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9486,8 +10168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" zoomScale="261" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
